--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF22EACD-D25B-4B78-ABE0-CDFA4FD8C0C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EF22EACD-D25B-4B78-ABE0-CDFA4FD8C0C8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="macroFlex" sheetId="2" r:id="rId2"/>
-    <sheet name="macroFlexWithoutIO" sheetId="5" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="macroFlex" r:id="rId2" sheetId="2"/>
+    <sheet name="macroFlexWithoutIO" r:id="rId3" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -30,7 +30,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -40,7 +40,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -48,15 +48,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="638">
   <si>
     <t>description</t>
   </si>
@@ -1832,13 +1832,170 @@
   </si>
   <si>
     <t>Add num1 to num2</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1915,8 +2072,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1933,6 +2304,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1976,150 +2619,252 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="72">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2183,7 +2928,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2208,10 +2953,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2246,7 +2991,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2281,7 +3026,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2375,21 +3120,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2406,7 +3151,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2458,26 +3203,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2557,25 +3302,28 @@
         <v>563</v>
       </c>
       <c r="AA1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>407</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>365</v>
       </c>
@@ -2655,25 +3403,28 @@
         <v>567</v>
       </c>
       <c r="AA2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>424</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>451</v>
       </c>
@@ -2744,25 +3495,28 @@
         <v>568</v>
       </c>
       <c r="AA3" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>358</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>476</v>
       </c>
@@ -2830,25 +3584,28 @@
         <v>569</v>
       </c>
       <c r="AA4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB4" t="s">
         <v>547</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>425</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>538</v>
       </c>
@@ -2904,25 +3661,28 @@
         <v>353</v>
       </c>
       <c r="AA5" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB5" t="s">
         <v>541</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>558</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>426</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2975,25 +3735,28 @@
         <v>355</v>
       </c>
       <c r="AA6" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>436</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>427</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3037,25 +3800,28 @@
         <v>354</v>
       </c>
       <c r="AA7" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>437</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>428</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3099,25 +3865,28 @@
         <v>356</v>
       </c>
       <c r="AA8" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>429</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3158,19 +3927,22 @@
         <v>357</v>
       </c>
       <c r="AA9" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3202,19 +3974,22 @@
         <v>399</v>
       </c>
       <c r="AA10" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>559</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -3240,19 +4015,22 @@
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>592</v>
       </c>
       <c r="AA11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3278,19 +4056,22 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA12" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -3316,19 +4097,22 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>551</v>
+        <v>247</v>
       </c>
       <c r="AA13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3351,19 +4135,22 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>252</v>
+        <v>551</v>
       </c>
       <c r="AA14" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -3386,19 +4173,22 @@
         <v>490</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA15" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB15" t="s">
         <v>570</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -3421,19 +4211,22 @@
         <v>491</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA16" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB16" t="s">
         <v>552</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -3450,19 +4243,22 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>454</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3478,19 +4274,25 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>250</v>
+      </c>
       <c r="AA18" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>587</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -3499,18 +4301,21 @@
         <v>447</v>
       </c>
       <c r="AA19" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB19" t="s">
         <v>492</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>588</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -3519,18 +4324,21 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>589</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -3539,18 +4347,21 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>528</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -3559,18 +4370,21 @@
         <v>544</v>
       </c>
       <c r="AA22" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -3579,18 +4393,21 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -3599,18 +4416,21 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB24" t="s">
         <v>473</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>577</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -3619,947 +4439,1040 @@
         <v>385</v>
       </c>
       <c r="AA25" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>563</v>
       </c>
       <c r="F26" t="s">
-        <v>440</v>
+        <v>528</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="AA26" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB26" t="s">
         <v>532</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>586</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>513</v>
       </c>
       <c r="AA27" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="AA29" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>407</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>407</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>459</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>460</v>
       </c>
       <c r="H34" t="s">
         <v>498</v>
       </c>
       <c r="AA34" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB36" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
         <v>529</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>590</v>
+      </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>362</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>350</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>530</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>363</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>364</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>517</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>403</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>404</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>499</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AA81" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>410</v>
       </c>
-      <c r="AA82" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AA83" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AA84" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AA85" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AA86" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AA87" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>518</v>
       </c>
-      <c r="AA88" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AA90" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AA91" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AA93" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AA96" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AA97" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>168</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="50.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="19.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="23.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="32.875" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="20.125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="50.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4590,7 +5503,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>47</v>
       </c>
@@ -4611,7 +5524,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4628,7 +5541,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -4673,7 +5586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>584</v>
       </c>
@@ -4700,7 +5613,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4725,7 +5638,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>585</v>
       </c>
@@ -4754,7 +5667,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4779,7 +5692,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -4804,7 +5717,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -4821,7 +5734,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -4838,7 +5751,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -4855,7 +5768,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -4872,7 +5785,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -4889,7 +5802,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -4906,7 +5819,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -4923,7 +5836,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -4940,7 +5853,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4957,7 +5870,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4974,7 +5887,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4991,7 +5904,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -5008,7 +5921,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -5025,7 +5938,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5042,7 +5955,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5059,7 +5972,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5076,7 +5989,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5093,7 +6006,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5110,7 +6023,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -5127,7 +6040,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5144,7 +6057,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5161,7 +6074,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5178,7 +6091,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5195,7 +6108,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5212,7 +6125,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5229,7 +6142,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5246,7 +6159,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5263,7 +6176,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5280,7 +6193,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5297,7 +6210,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5314,7 +6227,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5331,7 +6244,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5348,7 +6261,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5365,7 +6278,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5382,7 +6295,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5399,7 +6312,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5416,7 +6329,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5433,7 +6346,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5450,7 +6363,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5467,7 +6380,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5484,7 +6397,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5502,7 +6415,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5510,55 +6423,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="75.875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="50.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="18.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="30.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="75.875" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="20.125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="50.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -5589,7 +6502,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>47</v>
       </c>
@@ -5610,7 +6523,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5627,7 +6540,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -5672,7 +6585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>584</v>
       </c>
@@ -5699,7 +6612,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -5724,7 +6637,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>585</v>
       </c>
@@ -5749,7 +6662,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -5774,7 +6687,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -5791,7 +6704,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -5808,7 +6721,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -5825,7 +6738,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -5842,7 +6755,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -5859,7 +6772,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -5876,7 +6789,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -5893,7 +6806,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -5910,7 +6823,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -5927,7 +6840,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -5944,7 +6857,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -5961,7 +6874,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -5978,7 +6891,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -5995,7 +6908,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -6012,7 +6925,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -6029,7 +6942,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -6046,7 +6959,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -6063,7 +6976,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -6080,7 +6993,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -6097,7 +7010,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -6114,7 +7027,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -6131,7 +7044,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -6148,7 +7061,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -6165,7 +7078,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -6182,7 +7095,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -6199,7 +7112,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -6216,7 +7129,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -6233,7 +7146,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -6250,7 +7163,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -6267,7 +7180,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -6284,7 +7197,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -6301,7 +7214,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -6318,7 +7231,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -6335,7 +7248,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -6352,7 +7265,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -6369,7 +7282,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -6386,7 +7299,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -6403,7 +7316,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -6420,7 +7333,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -6437,7 +7350,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -6454,7 +7367,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6471,7 +7384,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6489,7 +7402,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -6497,24 +7410,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
@@ -22,13 +22,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -48,15 +48,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="640">
   <si>
     <t>description</t>
   </si>
@@ -1988,6 +1988,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2001,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2286,8 +2292,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2304,6 +2417,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2624,7 +2873,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2808,55 +3057,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3211,7 +3511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3302,24 +3602,21 @@
         <v>563</v>
       </c>
       <c r="AA1" t="s">
-        <v>586</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>407</v>
       </c>
       <c r="AF1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3352,7 +3649,7 @@
         <v>441</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>639</v>
       </c>
       <c r="K2" t="s">
         <v>457</v>
@@ -3403,24 +3700,21 @@
         <v>567</v>
       </c>
       <c r="AA2" t="s">
-        <v>593</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>181</v>
+        <v>424</v>
       </c>
       <c r="AF2" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG2" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3450,7 +3744,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>346</v>
@@ -3495,24 +3789,21 @@
         <v>568</v>
       </c>
       <c r="AA3" t="s">
-        <v>594</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
-        <v>175</v>
+        <v>358</v>
       </c>
       <c r="AE3" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3539,7 +3830,7 @@
         <v>442</v>
       </c>
       <c r="J4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K4" t="s">
         <v>347</v>
@@ -3584,24 +3875,21 @@
         <v>569</v>
       </c>
       <c r="AA4" t="s">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="AB4" t="s">
-        <v>547</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE4" t="s">
-        <v>182</v>
+        <v>425</v>
       </c>
       <c r="AF4" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3628,7 +3916,7 @@
         <v>446</v>
       </c>
       <c r="J5" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="K5" t="s">
         <v>348</v>
@@ -3661,24 +3949,21 @@
         <v>353</v>
       </c>
       <c r="AA5" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="AB5" t="s">
-        <v>541</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>558</v>
       </c>
       <c r="AD5" t="s">
-        <v>558</v>
+        <v>183</v>
       </c>
       <c r="AE5" t="s">
-        <v>183</v>
+        <v>426</v>
       </c>
       <c r="AF5" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3705,7 +3990,7 @@
         <v>439</v>
       </c>
       <c r="J6" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="K6" t="s">
         <v>562</v>
@@ -3735,24 +4020,21 @@
         <v>355</v>
       </c>
       <c r="AA6" t="s">
-        <v>597</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>436</v>
       </c>
       <c r="AC6" t="s">
-        <v>436</v>
+        <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>184</v>
+        <v>427</v>
       </c>
       <c r="AF6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3772,6 +4054,9 @@
       <c r="I7" t="s">
         <v>438</v>
       </c>
+      <c r="J7" t="s">
+        <v>545</v>
+      </c>
       <c r="K7" t="s">
         <v>345</v>
       </c>
@@ -3800,24 +4085,21 @@
         <v>354</v>
       </c>
       <c r="AA7" t="s">
-        <v>598</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>437</v>
       </c>
       <c r="AC7" t="s">
-        <v>437</v>
+        <v>178</v>
       </c>
       <c r="AD7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE7" t="s">
-        <v>185</v>
+        <v>428</v>
       </c>
       <c r="AF7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AG7" t="s">
         <v>522</v>
       </c>
     </row>
@@ -3865,24 +4147,21 @@
         <v>356</v>
       </c>
       <c r="AA8" t="s">
-        <v>599</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AE8" t="s">
-        <v>186</v>
+        <v>429</v>
       </c>
       <c r="AF8" t="s">
-        <v>429</v>
-      </c>
-      <c r="AG8" t="s">
         <v>523</v>
       </c>
     </row>
@@ -3927,18 +4206,15 @@
         <v>357</v>
       </c>
       <c r="AA9" t="s">
-        <v>600</v>
-      </c>
-      <c r="AB9" t="s">
         <v>207</v>
       </c>
+      <c r="AC9" t="s">
+        <v>180</v>
+      </c>
       <c r="AD9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3974,18 +4250,15 @@
         <v>399</v>
       </c>
       <c r="AA10" t="s">
-        <v>601</v>
-      </c>
-      <c r="AB10" t="s">
         <v>254</v>
       </c>
+      <c r="AC10" t="s">
+        <v>559</v>
+      </c>
       <c r="AD10" t="s">
-        <v>559</v>
-      </c>
-      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3994,7 +4267,7 @@
         <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>540</v>
+        <v>638</v>
       </c>
       <c r="H11" t="s">
         <v>349</v>
@@ -4018,15 +4291,12 @@
         <v>592</v>
       </c>
       <c r="AA11" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>256</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4035,7 +4305,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>540</v>
       </c>
       <c r="H12" t="s">
         <v>271</v>
@@ -4059,15 +4329,12 @@
         <v>246</v>
       </c>
       <c r="AA12" t="s">
-        <v>603</v>
-      </c>
-      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4076,7 +4343,7 @@
         <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
         <v>260</v>
@@ -4100,15 +4367,12 @@
         <v>247</v>
       </c>
       <c r="AA13" t="s">
-        <v>604</v>
-      </c>
-      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4117,7 +4381,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="H14" t="s">
         <v>313</v>
@@ -4138,15 +4402,12 @@
         <v>551</v>
       </c>
       <c r="AA14" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4155,7 +4416,7 @@
         <v>502</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>261</v>
@@ -4176,15 +4437,12 @@
         <v>252</v>
       </c>
       <c r="AA15" t="s">
-        <v>606</v>
-      </c>
-      <c r="AB15" t="s">
         <v>570</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4193,7 +4451,7 @@
         <v>467</v>
       </c>
       <c r="F16" t="s">
-        <v>378</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>262</v>
@@ -4214,15 +4472,12 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>607</v>
-      </c>
-      <c r="AB16" t="s">
         <v>552</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4231,7 +4486,7 @@
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H17" t="s">
         <v>314</v>
@@ -4246,15 +4501,12 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>608</v>
-      </c>
-      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>454</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4263,7 +4515,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -4278,12 +4530,9 @@
         <v>250</v>
       </c>
       <c r="AA18" t="s">
-        <v>609</v>
-      </c>
-      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4292,7 +4541,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>587</v>
+        <v>408</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -4301,12 +4550,9 @@
         <v>447</v>
       </c>
       <c r="AA19" t="s">
-        <v>610</v>
-      </c>
-      <c r="AB19" t="s">
         <v>492</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>484</v>
       </c>
     </row>
@@ -4315,7 +4561,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -4324,12 +4570,9 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4338,7 +4581,7 @@
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -4347,12 +4590,9 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4361,7 +4601,7 @@
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>589</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -4370,12 +4610,9 @@
         <v>544</v>
       </c>
       <c r="AA22" t="s">
-        <v>613</v>
-      </c>
-      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4384,7 +4621,7 @@
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -4393,12 +4630,9 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>525</v>
       </c>
     </row>
@@ -4407,7 +4641,7 @@
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -4416,12 +4650,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB24" t="s">
         <v>473</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4430,7 +4661,7 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>577</v>
+        <v>253</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -4439,12 +4670,9 @@
         <v>385</v>
       </c>
       <c r="AA25" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4453,7 +4681,7 @@
         <v>563</v>
       </c>
       <c r="F26" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -4462,21 +4690,18 @@
         <v>591</v>
       </c>
       <c r="AA26" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB26" t="s">
         <v>532</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>586</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>528</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -4485,21 +4710,18 @@
         <v>513</v>
       </c>
       <c r="AA27" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -4508,18 +4730,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -4528,18 +4747,15 @@
         <v>433</v>
       </c>
       <c r="AA29" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>440</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -4548,18 +4764,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>407</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>440</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -4568,187 +4781,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
       <c r="F33" t="s">
-        <v>459</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H34" t="s">
         <v>498</v>
       </c>
       <c r="AA34" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>409</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB36" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>529</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>590</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>590</v>
+      </c>
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4756,7 +4945,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4764,7 +4953,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4772,7 +4961,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4780,7 +4969,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4788,7 +4977,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4796,7 +4985,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>571</v>
       </c>
     </row>
@@ -4804,7 +4993,7 @@
       <c r="H52" t="s">
         <v>362</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4812,7 +5001,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4820,7 +5009,7 @@
       <c r="H54" t="s">
         <v>350</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4828,7 +5017,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4836,7 +5025,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4844,7 +5033,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4852,7 +5041,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>474</v>
       </c>
     </row>
@@ -4860,7 +5049,7 @@
       <c r="H59" t="s">
         <v>530</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>456</v>
       </c>
     </row>
@@ -4868,7 +5057,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4876,7 +5065,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4884,7 +5073,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>450</v>
       </c>
     </row>
@@ -4892,7 +5081,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4900,7 +5089,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4908,7 +5097,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4916,7 +5105,7 @@
       <c r="H66" t="s">
         <v>363</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4924,7 +5113,7 @@
       <c r="H67" t="s">
         <v>364</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4932,7 +5121,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4940,7 +5129,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4948,7 +5137,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>431</v>
       </c>
     </row>
@@ -4956,7 +5145,7 @@
       <c r="H71" t="s">
         <v>517</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4964,7 +5153,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4972,7 +5161,7 @@
       <c r="H73" t="s">
         <v>403</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4980,7 +5169,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4988,7 +5177,7 @@
       <c r="H75" t="s">
         <v>404</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4996,7 +5185,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5004,7 +5193,7 @@
       <c r="H77" t="s">
         <v>499</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5012,7 +5201,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5020,7 +5209,7 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5028,7 +5217,7 @@
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5036,7 +5225,7 @@
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5044,7 +5233,7 @@
       <c r="H82" t="s">
         <v>410</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5052,7 +5241,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5060,7 +5249,7 @@
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5068,7 +5257,7 @@
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5076,7 +5265,7 @@
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5084,7 +5273,7 @@
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5092,7 +5281,7 @@
       <c r="H88" t="s">
         <v>518</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5100,7 +5289,7 @@
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5108,7 +5297,7 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5116,7 +5305,7 @@
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5124,7 +5313,7 @@
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>550</v>
       </c>
     </row>
@@ -5132,7 +5321,7 @@
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5140,7 +5329,7 @@
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5148,7 +5337,7 @@
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5156,7 +5345,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5164,7 +5353,7 @@
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5172,272 +5361,272 @@
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>637</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="640">
   <si>
     <t>description</t>
   </si>
@@ -2001,7 +2001,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="96" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2399,8 +2399,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="76">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2417,6 +2631,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2873,7 +3359,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3108,55 +3594,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="51" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="68" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
@@ -30,12 +30,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="644">
   <si>
     <t>description</t>
   </si>
@@ -1994,6 +1994,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2013,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="96" x14ac:knownFonts="1">
+  <fonts count="130" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2613,8 +2625,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2631,6 +2857,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3359,7 +3857,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3696,55 +4194,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="85" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="99" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="102" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4258,7 +4858,7 @@
         <v>470</v>
       </c>
       <c r="Q2" t="s">
-        <v>412</v>
+        <v>641</v>
       </c>
       <c r="R2" t="s">
         <v>413</v>
@@ -4352,6 +4952,9 @@
       <c r="P3" t="s">
         <v>471</v>
       </c>
+      <c r="Q3" t="s">
+        <v>642</v>
+      </c>
       <c r="R3" t="s">
         <v>414</v>
       </c>
@@ -4438,6 +5041,9 @@
       <c r="P4" t="s">
         <v>472</v>
       </c>
+      <c r="Q4" t="s">
+        <v>643</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -4649,7 +5255,7 @@
         <v>345</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>640</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -4711,7 +5317,7 @@
         <v>519</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -4770,7 +5376,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>494</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -4820,7 +5426,7 @@
         <v>560</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -4864,7 +5470,7 @@
         <v>561</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
         <v>462</v>
@@ -4902,7 +5508,7 @@
         <v>443</v>
       </c>
       <c r="L12" t="s">
-        <v>495</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>520</v>
@@ -4940,7 +5546,7 @@
         <v>319</v>
       </c>
       <c r="L13" t="s">
-        <v>383</v>
+        <v>495</v>
       </c>
       <c r="N13" t="s">
         <v>434</v>
@@ -4978,7 +5584,7 @@
         <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>383</v>
       </c>
       <c r="N14" t="s">
         <v>463</v>
@@ -5013,7 +5619,7 @@
         <v>321</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5048,7 +5654,7 @@
         <v>322</v>
       </c>
       <c r="L16" t="s">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>531</v>
@@ -5080,7 +5686,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5109,7 +5715,7 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5135,7 +5741,7 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s">
         <v>492</v>
@@ -5155,7 +5761,7 @@
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>447</v>
       </c>
       <c r="AA20" t="s">
         <v>104</v>
@@ -5175,7 +5781,7 @@
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>
@@ -5195,7 +5801,7 @@
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>544</v>
+        <v>84</v>
       </c>
       <c r="AA22" t="s">
         <v>106</v>
@@ -5215,7 +5821,7 @@
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>461</v>
+        <v>544</v>
       </c>
       <c r="AA23" t="s">
         <v>107</v>
@@ -5235,7 +5841,7 @@
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="AA24" t="s">
         <v>473</v>
@@ -5255,7 +5861,7 @@
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>108</v>
@@ -5275,7 +5881,7 @@
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>591</v>
+        <v>385</v>
       </c>
       <c r="AA26" t="s">
         <v>532</v>
@@ -5295,7 +5901,7 @@
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="AA27" t="s">
         <v>109</v>
@@ -5315,7 +5921,7 @@
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>513</v>
       </c>
       <c r="AA28" t="s">
         <v>110</v>
@@ -5332,7 +5938,7 @@
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="s">
         <v>111</v>
@@ -5349,7 +5955,7 @@
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="AA30" t="s">
         <v>112</v>
@@ -5366,7 +5972,7 @@
         <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>324</v>
@@ -5381,6 +5987,9 @@
       </c>
       <c r="H32" t="s">
         <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
@@ -35,12 +35,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5576" uniqueCount="650">
   <si>
     <t>description</t>
   </si>
@@ -2006,6 +2006,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2031,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="130" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2839,8 +2857,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="172">
+  <fills count="196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2857,6 +2982,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3857,7 +4118,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4296,55 +4557,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4858,7 +5170,7 @@
         <v>470</v>
       </c>
       <c r="Q2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="R2" t="s">
         <v>413</v>
@@ -4953,7 +5265,7 @@
         <v>471</v>
       </c>
       <c r="Q3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="R3" t="s">
         <v>414</v>
@@ -5042,7 +5354,7 @@
         <v>472</v>
       </c>
       <c r="Q4" t="s">
-        <v>643</v>
+        <v>412</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -5124,6 +5436,9 @@
       <c r="O5" t="s">
         <v>514</v>
       </c>
+      <c r="Q5" t="s">
+        <v>646</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -5558,7 +5873,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>247</v>
+        <v>647</v>
       </c>
       <c r="AA13" t="s">
         <v>323</v>
@@ -5593,7 +5908,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>551</v>
+        <v>247</v>
       </c>
       <c r="AA14" t="s">
         <v>102</v>
@@ -5628,7 +5943,7 @@
         <v>490</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>551</v>
       </c>
       <c r="AA15" t="s">
         <v>570</v>
@@ -5663,7 +5978,7 @@
         <v>491</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA16" t="s">
         <v>552</v>
@@ -5692,7 +6007,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA17" t="s">
         <v>103</v>
@@ -5721,7 +6036,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA18" t="s">
         <v>75</v>
@@ -5743,6 +6058,9 @@
       <c r="L19" t="s">
         <v>82</v>
       </c>
+      <c r="S19" t="s">
+        <v>648</v>
+      </c>
       <c r="AA19" t="s">
         <v>492</v>
       </c>
@@ -5763,6 +6081,9 @@
       <c r="L20" t="s">
         <v>447</v>
       </c>
+      <c r="S20" t="s">
+        <v>250</v>
+      </c>
       <c r="AA20" t="s">
         <v>104</v>
       </c>
@@ -5782,6 +6103,9 @@
       </c>
       <c r="L21" t="s">
         <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>649</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
@@ -22,12 +22,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -48,15 +48,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5576" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6219" uniqueCount="687">
   <si>
     <t>description</t>
   </si>
@@ -2024,6 +2026,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="164" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2964,8 +3077,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="196">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2982,6 +3202,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4118,7 +4474,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="191">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4657,6 +5013,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5011,7 +5418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5111,12 +5518,18 @@
         <v>56</v>
       </c>
       <c r="AD1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>407</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5209,12 +5622,18 @@
         <v>174</v>
       </c>
       <c r="AD2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AF2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>424</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5301,12 +5720,18 @@
         <v>175</v>
       </c>
       <c r="AD3" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>680</v>
+      </c>
+      <c r="AF3" t="s">
         <v>358</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5390,12 +5815,18 @@
         <v>176</v>
       </c>
       <c r="AD4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AF4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>425</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5466,13 +5897,16 @@
       <c r="AC5" t="s">
         <v>558</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>682</v>
+      </c>
+      <c r="AF5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>426</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5537,13 +5971,16 @@
       <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>683</v>
+      </c>
+      <c r="AF6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>427</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5602,13 +6039,16 @@
       <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>428</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5626,7 +6066,7 @@
         <v>360</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>672</v>
       </c>
       <c r="K8" t="s">
         <v>519</v>
@@ -5664,13 +6104,16 @@
       <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>685</v>
+      </c>
+      <c r="AF8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>429</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>523</v>
       </c>
     </row>
@@ -5688,7 +6131,7 @@
         <v>361</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -5720,10 +6163,13 @@
       <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>686</v>
+      </c>
+      <c r="AF9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5738,7 +6184,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>560</v>
+        <v>326</v>
       </c>
       <c r="L10" t="s">
         <v>494</v>
@@ -5764,10 +6210,10 @@
       <c r="AC10" t="s">
         <v>559</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5782,7 +6228,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L11" t="s">
         <v>80</v>
@@ -5802,10 +6248,10 @@
       <c r="AA11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5820,7 +6266,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>443</v>
+        <v>561</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -5840,10 +6286,10 @@
       <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5858,7 +6304,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>443</v>
       </c>
       <c r="L13" t="s">
         <v>495</v>
@@ -5878,10 +6324,10 @@
       <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5896,7 +6342,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>383</v>
@@ -5913,10 +6359,10 @@
       <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>482</v>
       </c>
     </row>
@@ -5931,7 +6377,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -5948,10 +6394,10 @@
       <c r="AA15" t="s">
         <v>570</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5966,7 +6412,7 @@
         <v>262</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -5983,10 +6429,10 @@
       <c r="AA16" t="s">
         <v>552</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6000,6 +6446,9 @@
       <c r="H17" t="s">
         <v>314</v>
       </c>
+      <c r="I17" t="s">
+        <v>322</v>
+      </c>
       <c r="L17" t="s">
         <v>496</v>
       </c>
@@ -6012,10 +6461,10 @@
       <c r="AA17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>454</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6029,6 +6478,9 @@
       <c r="H18" t="s">
         <v>89</v>
       </c>
+      <c r="I18" t="s">
+        <v>673</v>
+      </c>
       <c r="L18" t="s">
         <v>81</v>
       </c>
@@ -6041,7 +6493,7 @@
       <c r="AA18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6050,7 +6502,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>408</v>
+        <v>652</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -6064,7 +6516,7 @@
       <c r="AA19" t="s">
         <v>492</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6073,7 +6525,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -6087,7 +6539,7 @@
       <c r="AA20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6096,7 +6548,7 @@
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>588</v>
+        <v>408</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -6110,7 +6562,7 @@
       <c r="AA21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6119,7 +6571,7 @@
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -6130,7 +6582,7 @@
       <c r="AA22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6139,7 +6591,7 @@
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>588</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -6150,7 +6602,7 @@
       <c r="AA23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6159,7 +6611,7 @@
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>589</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -6170,7 +6622,7 @@
       <c r="AA24" t="s">
         <v>473</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6179,7 +6631,7 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -6190,7 +6642,7 @@
       <c r="AA25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6199,18 +6651,18 @@
         <v>563</v>
       </c>
       <c r="F26" t="s">
-        <v>577</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>654</v>
       </c>
       <c r="L26" t="s">
         <v>385</v>
       </c>
       <c r="AA26" t="s">
-        <v>532</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>674</v>
+      </c>
+      <c r="AH26" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6219,18 +6671,18 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>528</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>655</v>
       </c>
       <c r="L27" t="s">
         <v>591</v>
       </c>
       <c r="AA27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>532</v>
+      </c>
+      <c r="AH27" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6239,16 +6691,16 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>577</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
         <v>513</v>
       </c>
       <c r="AA28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -6256,898 +6708,959 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>528</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
         <v>85</v>
       </c>
       <c r="AA29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>650</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
         <v>433</v>
       </c>
       <c r="AA30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>407</v>
+        <v>651</v>
       </c>
       <c r="F31" t="s">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" t="s">
+        <v>440</v>
+      </c>
+      <c r="H33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>224</v>
-      </c>
-      <c r="H33" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA34" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>459</v>
-      </c>
-      <c r="H34" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>460</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="AA35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="H36" t="s">
-        <v>327</v>
+        <v>498</v>
       </c>
       <c r="AA36" t="s">
-        <v>533</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>460</v>
       </c>
       <c r="H37" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="AA37" t="s">
-        <v>117</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>65</v>
+        <v>409</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="AA38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA39" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AA40" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AA41" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="AA42" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>529</v>
+        <v>656</v>
       </c>
       <c r="AA43" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s">
-        <v>386</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>590</v>
       </c>
-      <c r="H45" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA47" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="AA48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="AA49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="AA50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AA51" t="s">
-        <v>571</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s">
-        <v>211</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="AA53" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>350</v>
+        <v>657</v>
       </c>
       <c r="AA54" t="s">
-        <v>521</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>328</v>
+        <v>658</v>
       </c>
       <c r="AA55" t="s">
-        <v>126</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>265</v>
+        <v>659</v>
       </c>
       <c r="AA56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>289</v>
+        <v>660</v>
       </c>
       <c r="AA57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="AA58" t="s">
-        <v>474</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>530</v>
+        <v>362</v>
       </c>
       <c r="AA59" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AA60" t="s">
-        <v>129</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="AA61" t="s">
-        <v>343</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="AA62" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="AA63" t="s">
-        <v>130</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AA64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>307</v>
+        <v>530</v>
       </c>
       <c r="AA65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="AA66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>364</v>
+        <v>661</v>
       </c>
       <c r="AA67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>342</v>
+        <v>662</v>
       </c>
       <c r="AA68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>310</v>
+        <v>663</v>
       </c>
       <c r="AA69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="AA70" t="s">
-        <v>431</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>517</v>
+        <v>664</v>
       </c>
       <c r="AA71" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>311</v>
+        <v>665</v>
       </c>
       <c r="AA72" t="s">
-        <v>212</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="AA73" t="s">
-        <v>382</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AA74" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>404</v>
+        <v>307</v>
       </c>
       <c r="AA75" t="s">
-        <v>137</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="AA76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>499</v>
+        <v>364</v>
       </c>
       <c r="AA77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="AA79" t="s">
-        <v>630</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AA80" t="s">
-        <v>195</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>288</v>
+        <v>517</v>
       </c>
       <c r="AA81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="AA82" t="s">
-        <v>445</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="AA83" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>267</v>
+        <v>666</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>278</v>
+        <v>667</v>
       </c>
       <c r="AA85" t="s">
-        <v>142</v>
+        <v>675</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AA86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>273</v>
+        <v>499</v>
       </c>
       <c r="AA87" t="s">
-        <v>486</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>518</v>
+        <v>341</v>
       </c>
       <c r="AA88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AA89" t="s">
-        <v>145</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>285</v>
+        <v>668</v>
       </c>
       <c r="AA90" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>269</v>
+        <v>669</v>
       </c>
       <c r="AA91" t="s">
-        <v>475</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AA92" t="s">
-        <v>550</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="AA93" t="s">
-        <v>198</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="AA94" t="s">
-        <v>444</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AA95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="AA96" t="s">
-        <v>200</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AA97" t="s">
-        <v>536</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>631</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>632</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>500</v>
+        <v>631</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>147</v>
+        <v>632</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>376</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>501</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>554</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>555</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>153</v>
+        <v>555</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>556</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>572</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>534</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>633</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>557</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>166</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>167</v>
+        <v>557</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>634</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>635</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>637</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex.xlsx
@@ -23,42 +23,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6219" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7000" uniqueCount="773">
   <si>
     <t>description</t>
   </si>
@@ -2137,6 +2140,264 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2405,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="164" x14ac:knownFonts="1">
+  <fonts count="181" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3184,8 +3445,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="244">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3202,6 +3570,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4474,7 +4978,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="208">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4964,106 +5468,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="153" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5418,7 +5973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5449,87 +6004,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>344</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>688</v>
+      </c>
+      <c r="O1" t="s">
         <v>330</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>502</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>467</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>194</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>689</v>
+      </c>
+      <c r="U1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>389</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>405</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>406</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>351</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>390</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>563</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>650</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>651</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>407</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5553,87 +6120,99 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>441</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>639</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>457</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>312</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>380</v>
+      </c>
+      <c r="O2" t="s">
         <v>377</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>411</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>503</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>470</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>644</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>712</v>
+      </c>
+      <c r="U2" t="s">
         <v>413</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>251</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>565</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>391</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>417</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>418</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>374</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>400</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>567</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
-        <v>676</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>768</v>
+      </c>
+      <c r="AI2" t="s">
         <v>679</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>181</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>424</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5654,84 +6233,96 @@
         <v>448</v>
       </c>
       <c r="G3" t="s">
+        <v>691</v>
+      </c>
+      <c r="H3" t="s">
         <v>359</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>49</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>346</v>
       </c>
-      <c r="L3" t="s">
-        <v>338</v>
-      </c>
       <c r="M3" t="s">
+        <v>698</v>
+      </c>
+      <c r="N3" t="s">
+        <v>699</v>
+      </c>
+      <c r="O3" t="s">
         <v>331</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>86</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>504</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>471</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>645</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>713</v>
+      </c>
+      <c r="U3" t="s">
         <v>414</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>238</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>566</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>392</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>419</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>375</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>401</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>568</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
-        <v>677</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>769</v>
+      </c>
+      <c r="AI3" t="s">
         <v>680</v>
       </c>
-      <c r="AF3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>770</v>
+      </c>
+      <c r="AK3" t="s">
         <v>182</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5749,84 +6340,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>380</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>442</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>468</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>347</v>
       </c>
-      <c r="L4" t="s">
-        <v>546</v>
-      </c>
       <c r="M4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" t="s">
+        <v>381</v>
+      </c>
+      <c r="O4" t="s">
         <v>332</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>505</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>472</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>412</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>714</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>239</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>215</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>393</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>420</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>352</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>402</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>569</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE4" t="s">
         <v>547</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
-        <v>678</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>676</v>
+      </c>
+      <c r="AI4" t="s">
         <v>681</v>
       </c>
-      <c r="AF4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK4" t="s">
         <v>425</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5844,69 +6447,84 @@
         <v>449</v>
       </c>
       <c r="G5" t="s">
+        <v>693</v>
+      </c>
+      <c r="H5" t="s">
         <v>432</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>535</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>446</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>469</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>348</v>
       </c>
-      <c r="L5" t="s">
-        <v>236</v>
+      <c r="M5" t="s">
+        <v>546</v>
       </c>
       <c r="N5" t="s">
+        <v>700</v>
+      </c>
+      <c r="P5" t="s">
         <v>87</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>514</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>646</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>570</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>240</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>216</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>394</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>421</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>353</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE5" t="s">
         <v>541</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>558</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>677</v>
+      </c>
+      <c r="AI5" t="s">
         <v>682</v>
       </c>
-      <c r="AF5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK5" t="s">
         <v>426</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5924,69 +6542,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>694</v>
+      </c>
+      <c r="H6" t="s">
         <v>493</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>333</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>439</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>516</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>562</v>
       </c>
-      <c r="L6" t="s">
-        <v>453</v>
+      <c r="M6" t="s">
+        <v>236</v>
       </c>
       <c r="N6" t="s">
+        <v>701</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>509</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>552</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>241</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>217</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>395</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>355</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>436</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>177</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>678</v>
+      </c>
+      <c r="AI6" t="s">
         <v>683</v>
       </c>
-      <c r="AF6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK6" t="s">
         <v>427</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>687</v>
       </c>
       <c r="B7" t="s">
         <v>371</v>
@@ -5994,67 +6627,79 @@
       <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>695</v>
+      </c>
+      <c r="I7" t="s">
         <v>381</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>438</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>545</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>345</v>
       </c>
-      <c r="L7" t="s">
-        <v>640</v>
+      <c r="M7" t="s">
+        <v>453</v>
       </c>
       <c r="N7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" t="s">
         <v>312</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>510</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>242</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>218</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>396</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>354</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>437</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>178</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>684</v>
       </c>
-      <c r="AF7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>771</v>
+      </c>
+      <c r="AK7" t="s">
         <v>428</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>372</v>
@@ -6062,64 +6707,73 @@
       <c r="F8" t="s">
         <v>315</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>360</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>672</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>519</v>
       </c>
-      <c r="L8" t="s">
-        <v>72</v>
+      <c r="M8" t="s">
+        <v>640</v>
       </c>
       <c r="N8" t="s">
+        <v>702</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>511</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>715</v>
+      </c>
+      <c r="U8" t="s">
         <v>91</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>384</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>397</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>356</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>179</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>685</v>
       </c>
-      <c r="AF8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK8" t="s">
         <v>429</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>373</v>
@@ -6127,1541 +6781,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>361</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>325</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>72</v>
       </c>
       <c r="N9" t="s">
+        <v>703</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>515</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s">
         <v>92</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>416</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>398</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>357</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>180</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>686</v>
       </c>
-      <c r="AF9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL9" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>312</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>303</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>326</v>
       </c>
-      <c r="L10" t="s">
-        <v>494</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>704</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>506</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>716</v>
+      </c>
+      <c r="U10" t="s">
         <v>415</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>245</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>399</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>559</v>
       </c>
-      <c r="AF10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>638</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>349</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>560</v>
       </c>
-      <c r="L11" t="s">
-        <v>80</v>
+      <c r="M11" t="s">
+        <v>494</v>
       </c>
       <c r="N11" t="s">
+        <v>705</v>
+      </c>
+      <c r="P11" t="s">
         <v>462</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>507</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>492</v>
+      </c>
+      <c r="U11" t="s">
         <v>93</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>592</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
         <v>540</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>271</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>561</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>80</v>
       </c>
       <c r="N12" t="s">
+        <v>706</v>
+      </c>
+      <c r="P12" t="s">
         <v>520</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>564</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>717</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>246</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE12" t="s">
         <v>101</v>
       </c>
-      <c r="AF12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>316</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>260</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>443</v>
       </c>
-      <c r="L13" t="s">
-        <v>495</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>707</v>
+      </c>
+      <c r="P13" t="s">
         <v>434</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>508</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>718</v>
+      </c>
+      <c r="U13" t="s">
         <v>94</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>647</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE13" t="s">
         <v>323</v>
       </c>
-      <c r="AF13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL13" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>688</v>
       </c>
       <c r="F14" t="s">
         <v>338</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>313</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>319</v>
       </c>
-      <c r="L14" t="s">
-        <v>383</v>
+      <c r="M14" t="s">
+        <v>495</v>
       </c>
       <c r="N14" t="s">
+        <v>708</v>
+      </c>
+      <c r="P14" t="s">
         <v>463</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>719</v>
+      </c>
+      <c r="U14" t="s">
         <v>95</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>247</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE14" t="s">
         <v>102</v>
       </c>
-      <c r="AF14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>772</v>
+      </c>
+      <c r="AL14" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>330</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>261</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>320</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>383</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>709</v>
+      </c>
+      <c r="P15" t="s">
+        <v>711</v>
+      </c>
+      <c r="T15" t="s">
+        <v>720</v>
+      </c>
+      <c r="U15" t="s">
         <v>490</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>551</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE15" t="s">
         <v>570</v>
       </c>
-      <c r="AF15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL15" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>262</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>321</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>531</v>
-      </c>
-      <c r="R16" t="s">
+        <v>710</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>721</v>
+      </c>
+      <c r="U16" t="s">
         <v>491</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>252</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE16" t="s">
         <v>552</v>
       </c>
-      <c r="AF16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL16" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>502</v>
       </c>
       <c r="F17" t="s">
         <v>378</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>314</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>322</v>
       </c>
-      <c r="L17" t="s">
-        <v>496</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>531</v>
+      </c>
+      <c r="T17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s">
         <v>248</v>
       </c>
-      <c r="AA17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>454</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>757</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL17" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>467</v>
       </c>
       <c r="F18" t="s">
         <v>379</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>673</v>
       </c>
-      <c r="L18" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>496</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>722</v>
+      </c>
+      <c r="V18" t="s">
         <v>249</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE18" t="s">
         <v>75</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL18" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
         <v>652</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>90</v>
       </c>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>723</v>
+      </c>
+      <c r="V19" t="s">
         <v>648</v>
       </c>
-      <c r="AA19" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>758</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL19" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>689</v>
       </c>
       <c r="F20" t="s">
         <v>653</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>293</v>
       </c>
-      <c r="L20" t="s">
-        <v>447</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="T20" t="s">
+        <v>724</v>
+      </c>
+      <c r="V20" t="s">
         <v>250</v>
       </c>
-      <c r="AA20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL20" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>408</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>294</v>
       </c>
-      <c r="L21" t="s">
-        <v>83</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>447</v>
+      </c>
+      <c r="T21" t="s">
+        <v>725</v>
+      </c>
+      <c r="V21" t="s">
         <v>649</v>
       </c>
-      <c r="AA21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>759</v>
+      </c>
+      <c r="AL21" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
         <v>587</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>295</v>
       </c>
-      <c r="L22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="T22" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>588</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>296</v>
       </c>
-      <c r="L23" t="s">
-        <v>544</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" t="s">
+        <v>727</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL23" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="F24" t="s">
         <v>589</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>287</v>
       </c>
-      <c r="L24" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>473</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>544</v>
+      </c>
+      <c r="T24" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL24" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="F25" t="s">
         <v>60</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>276</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>461</v>
+      </c>
+      <c r="T25" t="s">
+        <v>729</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL25" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>563</v>
+        <v>406</v>
       </c>
       <c r="F26" t="s">
         <v>61</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>654</v>
       </c>
-      <c r="L26" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>674</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>473</v>
+      </c>
+      <c r="AL26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="F27" t="s">
         <v>253</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>655</v>
       </c>
-      <c r="L27" t="s">
-        <v>591</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>532</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>385</v>
+      </c>
+      <c r="T27" t="s">
+        <v>731</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>390</v>
       </c>
       <c r="F28" t="s">
         <v>577</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>76</v>
       </c>
-      <c r="L28" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>109</v>
+      <c r="M28" t="s">
+        <v>591</v>
+      </c>
+      <c r="T28" t="s">
+        <v>732</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="F29" t="s">
         <v>528</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>279</v>
       </c>
-      <c r="L29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>110</v>
+      <c r="M29" t="s">
+        <v>513</v>
+      </c>
+      <c r="T29" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>263</v>
       </c>
-      <c r="L30" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>111</v>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>651</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>318</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>280</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>112</v>
+      <c r="M31" t="s">
+        <v>433</v>
+      </c>
+      <c r="T31" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>281</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>324</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
         <v>440</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>214</v>
       </c>
-      <c r="AA33" t="s">
-        <v>113</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>650</v>
       </c>
       <c r="F34" t="s">
         <v>223</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>272</v>
       </c>
-      <c r="AA34" t="s">
-        <v>114</v>
+      <c r="T34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>651</v>
+      </c>
       <c r="F35" t="s">
         <v>224</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>282</v>
       </c>
-      <c r="AA35" t="s">
-        <v>115</v>
+      <c r="T35" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" t="s">
         <v>459</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>498</v>
       </c>
-      <c r="AA36" t="s">
-        <v>116</v>
+      <c r="T36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>407</v>
+      </c>
       <c r="F37" t="s">
         <v>460</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>257</v>
       </c>
-      <c r="AA37" t="s">
-        <v>533</v>
+      <c r="T37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
       <c r="F38" t="s">
         <v>409</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>327</v>
       </c>
-      <c r="AA38" t="s">
-        <v>117</v>
+      <c r="T38" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>64</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
-        <v>118</v>
+      <c r="T39" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>65</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>258</v>
       </c>
-      <c r="AA40" t="s">
-        <v>208</v>
+      <c r="T40" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>66</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>305</v>
       </c>
-      <c r="AA41" t="s">
-        <v>119</v>
+      <c r="T41" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>67</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>264</v>
       </c>
-      <c r="AA42" t="s">
-        <v>335</v>
+      <c r="T42" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>68</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>656</v>
       </c>
-      <c r="AA43" t="s">
-        <v>422</v>
+      <c r="T43" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>69</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>78</v>
       </c>
-      <c r="AA44" t="s">
-        <v>542</v>
+      <c r="T44" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>70</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>210</v>
       </c>
-      <c r="AA45" t="s">
-        <v>386</v>
+      <c r="T45" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>71</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>529</v>
       </c>
-      <c r="AA46" t="s">
-        <v>120</v>
+      <c r="T46" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>590</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>286</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>297</v>
+      </c>
+      <c r="T48" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>298</v>
+      </c>
+      <c r="T49" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="T50" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>339</v>
+      </c>
+      <c r="T51" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE51" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE52" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE54" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE56" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>660</v>
+      </c>
+      <c r="AE57" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>657</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>658</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE59" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>659</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE60" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>660</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE61" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>697</v>
+      </c>
+      <c r="AE62" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE64" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE65" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE67" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE68" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>661</v>
+      </c>
+      <c r="AE69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>530</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE70" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>663</v>
+      </c>
+      <c r="AE71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>661</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE72" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>662</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>664</v>
+      </c>
+      <c r="AE73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>663</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>665</v>
+      </c>
+      <c r="AE74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE75" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>664</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE76" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE77" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE78" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE79" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE80" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE81" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE83" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE84" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE85" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>517</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>666</v>
+      </c>
+      <c r="AE86" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>667</v>
+      </c>
+      <c r="AE87" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE88" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>666</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE89" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>667</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE90" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE91" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE92" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE93" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE94" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>668</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE95" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE96" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE97" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>410</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE98" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE99" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE100" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE102" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE103" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE104" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>518</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE105" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE106" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE107" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>670</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE108" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>671</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE109" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE110" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE111" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE112" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE113" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
